--- a/txt_files/Fleet8_PISCO_IndexData.xlsx
+++ b/txt_files/Fleet8_PISCO_IndexData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6510"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16037" windowHeight="6514"/>
   </bookViews>
   <sheets>
     <sheet name="AIC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Model</t>
   </si>
@@ -52,24 +52,6 @@
     <t>Year + Month + Site + Zone</t>
   </si>
   <si>
-    <t>\textbf{5512}</t>
-  </si>
-  <si>
-    <t>Drop June - few samples</t>
-  </si>
-  <si>
-    <t>Drop earlier than 2004 for UCSB and 2001 for UCSC</t>
-  </si>
-  <si>
-    <t>Sites sampled in at least half of all years (UCSC and UCSB separate)</t>
-  </si>
-  <si>
-    <t>Sites observed GBY in at least half of all years</t>
-  </si>
-  <si>
-    <t>Drop "old" transects</t>
-  </si>
-  <si>
     <t>Subset to just UCSC sites</t>
   </si>
   <si>
@@ -86,13 +68,40 @@
   </si>
   <si>
     <t>AIC</t>
+  </si>
+  <si>
+    <t>Remove month of  June - few samples</t>
+  </si>
+  <si>
+    <t>Remove dives earlier than 2004 for UCSB and 2001 for UCSC</t>
+  </si>
+  <si>
+    <t>Keep sites sampled in at least half of all years (UCSC and UCSB separate)</t>
+  </si>
+  <si>
+    <t>Keep sites observing GBYR in at least half of all years</t>
+  </si>
+  <si>
+    <t>Remove transects denoted as old, no longer sampled</t>
+  </si>
+  <si>
+    <t>\textbf{5,512}</t>
+  </si>
+  <si>
+    <t>5,687</t>
+  </si>
+  <si>
+    <t>5,672</t>
+  </si>
+  <si>
+    <t>5,623</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,21 +110,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Lucida Console"/>
@@ -142,15 +136,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,71 +422,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>5687</v>
-      </c>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>5672</v>
-      </c>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4">
-        <v>5623</v>
-      </c>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -504,25 +481,28 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="A9:C9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="61.4609375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>22055</v>
@@ -531,9 +511,9 @@
         <v>6330</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>21941</v>
@@ -542,9 +522,9 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>20659</v>
@@ -553,9 +533,9 @@
         <v>6165</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B5">
         <v>14721</v>
@@ -564,9 +544,9 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>12139</v>
@@ -575,9 +555,9 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>10712</v>
@@ -586,9 +566,9 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B8">
         <v>5686</v>
@@ -597,9 +577,9 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>3231</v>
@@ -621,9 +601,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -634,7 +614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -645,7 +625,7 @@
         <v>0.23291710889901701</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -656,7 +636,7 @@
         <v>0.21455644387637099</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -667,7 +647,7 @@
         <v>0.18501245376247399</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -678,7 +658,7 @@
         <v>0.21918383878244699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -689,7 +669,7 @@
         <v>0.23517223469788501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -700,7 +680,7 @@
         <v>0.22566252816034699</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -711,7 +691,7 @@
         <v>0.235825513371649</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -722,7 +702,7 @@
         <v>0.22194722796844499</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -733,7 +713,7 @@
         <v>0.21865289225197199</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -744,7 +724,7 @@
         <v>0.20587360374119601</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -755,7 +735,7 @@
         <v>0.18550346721758099</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -766,7 +746,7 @@
         <v>0.23471059912464401</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -777,7 +757,7 @@
         <v>0.223271718910864</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -788,7 +768,7 @@
         <v>0.23104485839137501</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -799,7 +779,7 @@
         <v>0.21531073749799001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -810,7 +790,7 @@
         <v>0.222342785460801</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -821,7 +801,7 @@
         <v>0.22813632096229799</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>2018</v>
       </c>

--- a/txt_files/Fleet8_PISCO_IndexData.xlsx
+++ b/txt_files/Fleet8_PISCO_IndexData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16037" windowHeight="6514"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6510" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AIC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Model</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t>5,623</t>
+  </si>
+  <si>
+    <t>Collapse repeated transects</t>
   </si>
 </sst>
 </file>
@@ -424,13 +427,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,7 +441,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -446,7 +449,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -454,7 +457,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -462,7 +465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -478,18 +481,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61.4609375" customWidth="1"/>
+    <col min="1" max="1" width="61.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -500,7 +503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -511,7 +514,7 @@
         <v>6330</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -522,7 +525,7 @@
         <v>6318</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -533,7 +536,7 @@
         <v>6165</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -544,7 +547,7 @@
         <v>4097</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -555,7 +558,7 @@
         <v>4002</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -566,7 +569,7 @@
         <v>3268</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -577,7 +580,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -586,6 +589,17 @@
       </c>
       <c r="C9">
         <v>1729</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10">
+        <v>1928</v>
+      </c>
+      <c r="C10">
+        <v>1487</v>
       </c>
     </row>
   </sheetData>
@@ -601,9 +615,9 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -614,7 +628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -625,7 +639,7 @@
         <v>0.23291710889901701</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -636,7 +650,7 @@
         <v>0.21455644387637099</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -647,7 +661,7 @@
         <v>0.18501245376247399</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -658,7 +672,7 @@
         <v>0.21918383878244699</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -669,7 +683,7 @@
         <v>0.23517223469788501</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -680,7 +694,7 @@
         <v>0.22566252816034699</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -691,7 +705,7 @@
         <v>0.235825513371649</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -702,7 +716,7 @@
         <v>0.22194722796844499</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -713,7 +727,7 @@
         <v>0.21865289225197199</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -724,7 +738,7 @@
         <v>0.20587360374119601</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -735,7 +749,7 @@
         <v>0.18550346721758099</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -746,7 +760,7 @@
         <v>0.23471059912464401</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -757,7 +771,7 @@
         <v>0.223271718910864</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -768,7 +782,7 @@
         <v>0.23104485839137501</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -779,7 +793,7 @@
         <v>0.21531073749799001</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -790,7 +804,7 @@
         <v>0.222342785460801</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -801,7 +815,7 @@
         <v>0.22813632096229799</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>
